--- a/Databases/Homeworks/10-ADO.Net/10-ADO.Net/scores.xlsx
+++ b/Databases/Homeworks/10-ADO.Net/10-ADO.Net/scores.xlsx
@@ -11,7 +11,7 @@
     <sheet r:id="rId4" sheetId="2" name="PersonScores"/>
   </sheets>
   <definedNames>
-    <definedName name="PersonScores">'PersonScores'!$A$1:$B$5</definedName>
+    <definedName name="PersonScores">'PersonScores'!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -415,6 +415,78 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Databases/Homeworks/10-ADO.Net/10-ADO.Net/scores.xlsx
+++ b/Databases/Homeworks/10-ADO.Net/10-ADO.Net/scores.xlsx
@@ -11,7 +11,7 @@
     <sheet r:id="rId4" sheetId="2" name="PersonScores"/>
   </sheets>
   <definedNames>
-    <definedName name="PersonScores">'PersonScores'!$A$1:$B$11</definedName>
+    <definedName name="PersonScores">'PersonScores'!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -487,6 +487,18 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Databases/Homeworks/10-ADO.Net/10-ADO.Net/scores.xlsx
+++ b/Databases/Homeworks/10-ADO.Net/10-ADO.Net/scores.xlsx
@@ -11,7 +11,7 @@
     <sheet r:id="rId4" sheetId="2" name="PersonScores"/>
   </sheets>
   <definedNames>
-    <definedName name="PersonScores">'PersonScores'!$A$1:$B$12</definedName>
+    <definedName name="PersonScores">'PersonScores'!$A$1:$B$13</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -499,6 +499,18 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Tosho</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
